--- a/文档/硬件资源分配表.xlsx
+++ b/文档/硬件资源分配表.xlsx
@@ -938,7 +938,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,8 +974,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,6 +1054,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1078,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1167,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1454,99 +1496,109 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" s="23"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>

--- a/文档/硬件资源分配表.xlsx
+++ b/文档/硬件资源分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
   <si>
     <t>USART2_TX</t>
   </si>
@@ -931,6 +931,18 @@
   </si>
   <si>
     <t>PF10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步到各个模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步到各个模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1191,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2186,7 +2201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
@@ -2194,11 +2209,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -2214,7 +2229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -2222,13 +2237,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>91</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>93</v>
       </c>
@@ -2244,7 +2259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>95</v>
       </c>
@@ -2252,13 +2267,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>97</v>
       </c>
@@ -2266,7 +2281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>99</v>
       </c>
@@ -2274,45 +2289,57 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>148</v>
       </c>
@@ -2320,7 +2347,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
         <v>164</v>
       </c>
@@ -2328,7 +2355,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>168</v>
       </c>
@@ -2336,7 +2363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
         <v>170</v>
       </c>
@@ -2344,7 +2371,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
         <v>172</v>
       </c>
@@ -2352,7 +2379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
         <v>186</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>188</v>
       </c>
@@ -2368,12 +2395,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>174</v>
       </c>
@@ -2381,7 +2408,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>180</v>
       </c>
